--- a/TestCases/Back End/UpdateAssessment-BackEnd-TeamLead.xlsx
+++ b/TestCases/Back End/UpdateAssessment-BackEnd-TeamLead.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18801"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{D96C9848-816D-4E48-9FF3-7ADD7B1CB3D2}" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{0B03D5C6-BFB3-4A7C-A119-8D12FB17E619}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{D96C9848-816D-4E48-9FF3-7ADD7B1CB3D2}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{0B03D5C6-BFB3-4A7C-A119-8D12FB17E619}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,9 +403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
